--- a/InputData/indst/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/indst/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariz\Desktop\Variáveis marianne FINAL\indst\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1028A456-79C2-43BF-A521-23545DFF5218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
+    <workbookView xWindow="-19308" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="WMITR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Congressional Budget Office</t>
-  </si>
-  <si>
-    <t>Effective Marginal Tax Rates for Low- and Moderate-Income Workers</t>
-  </si>
-  <si>
-    <t>http://www.cbo.gov/publication/43709</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Workers</t>
   </si>
@@ -40,26 +42,70 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>Summary, headline of third paragraph</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>450% of the federal poverty level.</t>
-  </si>
-  <si>
-    <t>This is the average marginal income tax rate faced by workers who earn less than</t>
-  </si>
-  <si>
     <t>Marginal Income Tax Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>http://receita.economia.gov.br/interface/cidadao/irpf/2019/perguntao/perguntas-e-respostas-irpf-2019.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum monthly income = </t>
+  </si>
+  <si>
+    <t>reais (BRL)</t>
+  </si>
+  <si>
+    <t>450% FPL=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The US model considers the income tax rate relative to an income of 450% FPL. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income tax rate in Brazil is progressive. Following the US model, for a yearly income of 450% FPL (calculated below), a tax rate of 22.5%  applies. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secretaria Especial da Receita Federal do Brasil </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Special Secretariat of the Federal Revenue of Brazil)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Imposto sobre a Renda da Pessoa Física </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Personal Income Tax)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax rate for this income: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +125,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,7 +171,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -134,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -209,6 +263,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -244,6 +315,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,64 +507,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="D12">
+        <v>1045</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>8</v>
+      </c>
+      <c r="D13">
+        <f>4.5*D12*12</f>
+        <v>56430</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>0.22500000000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{1804ADD2-AF32-4CF6-B507-4E99021814C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -484,32 +600,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.265625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <f>About!D15</f>
+        <v>0.22500000000000001</v>
       </c>
     </row>
   </sheetData>
